--- a/Codigo_Fuente/Interface/images/defaultFiles/defaultFolders.xlsx
+++ b/Codigo_Fuente/Interface/images/defaultFiles/defaultFolders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JUAN OROZCO\Desktop\Multi App\TareApp-master\Codigo_Fuente\Interface\images\defaultFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC51B82-9969-474E-A457-74C333A2C936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A39CDB-BBF6-4FA4-9F46-BEAD7E918E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
